--- a/Status/PlayerBaseStatus.xlsx
+++ b/Status/PlayerBaseStatus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>//キャラ名</t>
     <rPh sb="5" eb="6">
@@ -161,6 +161,33 @@
   <si>
     <t>ファイ２</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../Image/Player/Chara00.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../Image/Player/Chara01.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Chara02.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Chara03.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Chara04.png</t>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -210,13 +237,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -497,15 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +569,11 @@
       <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,8 +604,11 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -600,8 +639,11 @@
       <c r="J3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -632,8 +674,11 @@
       <c r="J4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -664,8 +709,11 @@
       <c r="J5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -696,8 +744,11 @@
       <c r="J6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -728,8 +779,11 @@
       <c r="J7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -761,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -793,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -828,6 +882,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Status/PlayerBaseStatus.xlsx
+++ b/Status/PlayerBaseStatus.xlsx
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -233,11 +233,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,6 +272,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +566,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -615,25 +651,25 @@
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>25</v>
       </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
         <v>3</v>
       </c>
       <c r="J3" s="2">
@@ -650,25 +686,25 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6">
         <v>4</v>
       </c>
       <c r="J4" s="2">
@@ -685,25 +721,25 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
         <v>4</v>
       </c>
       <c r="J5" s="2">
@@ -720,25 +756,25 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6">
         <v>8</v>
       </c>
-      <c r="G6" s="2">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <v>5</v>
       </c>
       <c r="J6" s="2">
@@ -755,25 +791,25 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F7" s="5">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>5</v>
       </c>
       <c r="J7" s="2">
@@ -790,25 +826,25 @@
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="6">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>7</v>
       </c>
       <c r="J8" s="2">
@@ -822,57 +858,57 @@
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
         <v>5</v>
       </c>
       <c r="J10" s="2">

--- a/Status/PlayerBaseStatus.xlsx
+++ b/Status/PlayerBaseStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>//キャラ名</t>
     <rPh sb="5" eb="6">
@@ -188,6 +188,15 @@
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../Image/Player/Chara05.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Chara06.png</t>
+  </si>
+  <si>
+    <t>../Image/Player/Chara07.png</t>
   </si>
 </sst>
 </file>
@@ -565,16 +574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,7 +653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -679,7 +688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -714,7 +723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -749,7 +758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -784,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -819,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="J8" s="2">
         <v>5</v>
       </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -882,8 +894,11 @@
       <c r="J9" s="2">
         <v>5</v>
       </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -913,6 +928,9 @@
       </c>
       <c r="J10" s="2">
         <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
